--- a/biology/Écologie/Matthieu_Calame/Matthieu_Calame.xlsx
+++ b/biology/Écologie/Matthieu_Calame/Matthieu_Calame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Matthieu Calame (né en 1970) est un expert français des problématiques agricoles et alimentaires.
 </t>
@@ -511,7 +523,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ingénieur agronome formé à l'École nationale supérieure agronomique de Toulouse (ENSAT).
 </t>
@@ -542,10 +556,12 @@
           <t>Parcours professionnel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Matthieu Calame a procédé à la reconversion vers une gestion durable du domaine rural de la ferme de la Bergerie, situé sur le domaine de Villarceaux, sur la commune de Chaussy (Val-d'Oise). 
-Durant trois ans, de 2003 à 2006[1], il a également occupé les fonctions de président de l'Institut technique de l'agriculture biologique (ITAB).
+Durant trois ans, de 2003 à 2006, il a également occupé les fonctions de président de l'Institut technique de l'agriculture biologique (ITAB).
 Actuellement chargé du dossier de l’évaluation des recherches sur le vivant et de la gestion durable des territoires au sein de la Fondation Charles Léopold Mayer pour le progrès de l'Homme, il intervient et participe régulièrement à des rencontres diverses, en qualité d'auditeur à l'Institut des hautes études pour la science et la technologie, ou en tant que contributeur dans La vie des idées par exemple.
 Depuis 2009, il est directeur de la Fondation Charles Léopold Mayer pour le progrès de l'Homme, liée à sa famille.
 </t>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Une agriculture pour le XXIe siècle. Manifeste pour une agronomie biologique, Paris, Éditions Charles Léopold Mayer, 2007, 153 p. (présentation en ligne, lire en ligne)
 La Tourmente alimentaire. Pour une politique agricole mondiale, Paris, Éditions Charles Léopold Mayer, 2008, 208 p. (ISBN 978-2-84377-142-2, présentation en ligne, lire en ligne)
